--- a/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/固定资产原价合计.xlsx
+++ b/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/固定资产原价合计.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,377 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>163.81627</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1000.80692</v>
-      </c>
-      <c r="D2" t="n">
-        <v>144.01256</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.1174</v>
-      </c>
-      <c r="F2" t="n">
-        <v>142.53286</v>
-      </c>
-      <c r="G2" t="n">
-        <v>778.61759</v>
-      </c>
-      <c r="H2" t="n">
-        <v>440.75421</v>
-      </c>
-      <c r="I2" t="n">
-        <v>219.54601</v>
-      </c>
-      <c r="J2" t="n">
-        <v>173.22752</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544.32463</v>
-      </c>
-      <c r="L2" t="n">
-        <v>14318.30483</v>
-      </c>
-      <c r="M2" t="n">
-        <v>72.17122000000001</v>
-      </c>
-      <c r="N2" t="n">
-        <v>143.70496</v>
-      </c>
-      <c r="O2" t="n">
-        <v>445.02973</v>
-      </c>
-      <c r="P2" t="n">
-        <v>193.78184</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.96143</v>
-      </c>
-      <c r="R2" t="n">
-        <v>351.89438</v>
-      </c>
-      <c r="S2" t="n">
-        <v>150.30872</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>231.25622</v>
-      </c>
-      <c r="V2" t="n">
-        <v>9.46697</v>
-      </c>
-      <c r="W2" t="n">
-        <v>21.32633</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1.74125</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>2205.74448</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1570.4637</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>740.40972</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>204.35462</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>120.41733</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.02108</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>749.28715</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>12.29332</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>538.5909</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>512.68844</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>851.99728</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>10.10185</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>392.80117</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>386.76243</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>515.88249</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>276.70733</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.38252</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>187.39354</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1104.575</v>
-      </c>
-      <c r="D3" t="n">
-        <v>153.91815</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>159.96469</v>
-      </c>
-      <c r="G3" t="n">
-        <v>901.89259</v>
-      </c>
-      <c r="H3" t="n">
-        <v>264.49388</v>
-      </c>
-      <c r="I3" t="n">
-        <v>249.17288</v>
-      </c>
-      <c r="J3" t="n">
-        <v>258.74056</v>
-      </c>
-      <c r="K3" t="n">
-        <v>622.4638200000001</v>
-      </c>
-      <c r="L3" t="n">
-        <v>16700.29658</v>
-      </c>
-      <c r="M3" t="n">
-        <v>85.49312</v>
-      </c>
-      <c r="N3" t="n">
-        <v>156.85903</v>
-      </c>
-      <c r="O3" t="n">
-        <v>504.98469</v>
-      </c>
-      <c r="P3" t="n">
-        <v>175.14938</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.43077</v>
-      </c>
-      <c r="R3" t="n">
-        <v>375.40325</v>
-      </c>
-      <c r="S3" t="n">
-        <v>163.16922</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>262.64227</v>
-      </c>
-      <c r="V3" t="n">
-        <v>13.10034</v>
-      </c>
-      <c r="W3" t="n">
-        <v>22.65095</v>
-      </c>
-      <c r="X3" t="n">
-        <v>13.22174</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>2814.88729</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1993.3301</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>863.29153</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>233.21438</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>332.23682</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>60.87774</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>839.25551</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>17.16643</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>636.28298</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>609.1349</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>877.26321</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>10.28946</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>437.07831</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>408.62574</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>547.3173399999999</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>342.75249</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.57248</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>222.0152</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1244.9799</v>
-      </c>
-      <c r="D4" t="n">
-        <v>191.49184</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>183.88744</v>
-      </c>
-      <c r="G4" t="n">
-        <v>978.2091</v>
-      </c>
-      <c r="H4" t="n">
-        <v>307.6862</v>
-      </c>
-      <c r="I4" t="n">
-        <v>303.14111</v>
-      </c>
-      <c r="J4" t="n">
-        <v>244.54603</v>
-      </c>
-      <c r="K4" t="n">
-        <v>708.21097</v>
-      </c>
-      <c r="L4" t="n">
-        <v>18726.87612</v>
-      </c>
-      <c r="M4" t="n">
-        <v>103.93306</v>
-      </c>
-      <c r="N4" t="n">
-        <v>185.92057</v>
-      </c>
-      <c r="O4" t="n">
-        <v>592.38658</v>
-      </c>
-      <c r="P4" t="n">
-        <v>238.48821</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.42864</v>
-      </c>
-      <c r="R4" t="n">
-        <v>411.78764</v>
-      </c>
-      <c r="S4" t="n">
-        <v>166.456</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>297.37421</v>
-      </c>
-      <c r="V4" t="n">
-        <v>10.91543</v>
-      </c>
-      <c r="W4" t="n">
-        <v>41.02402</v>
-      </c>
-      <c r="X4" t="n">
-        <v>14.77547</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>3116.23143</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>2392.80153</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>923.29891</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>254.1688</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>400.67828</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>65.10568000000001</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>925.58153</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>49.69487</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>698.55762</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>630.34992</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>957.19535</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>12.0775</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>488.93116</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>454.06361</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>580.07845</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>324.05804</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.9493</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
